--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C925CBE-9654-412A-87F5-7D25A31EB956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="11115" yWindow="1545" windowWidth="17250" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Doi</t>
   </si>
@@ -39,18 +46,42 @@
     <t>Authors</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID Format</t>
+  </si>
+  <si>
+    <t>Date Accepted</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>Obesity in patients younger than 60 years is a risk factor for Covid-19 hospital admission</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1, Michael%Phillips%NULL%1, Sarah%Hochman%NULL%1, Stephanie%Sterling%NULL%1, Diane%Johnson%NULL%1, Fritz%Francois%NULL%1, Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7184372</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
     <t>Unknown Title</t>
   </si>
   <si>
     <t>Unknown Abstract</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ID Format</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -58,67 +89,40 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Date Accepted</t>
-  </si>
-  <si>
-    <t>Obesity in patients younger than 60 years is a risk factor for Covid-19 hospital admission</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1, Michael%Phillips%NULL%1, Sarah%Hochman%NULL%1, Stephanie%Sterling%NULL%1, Diane%Johnson%NULL%1, Fritz%Francois%NULL%1, Anna%Stachel%NULL%1]</t>
-  </si>
-  <si>
-    <t>PMC7184372</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>1970-01-01</t>
-  </si>
-  <si>
-    <t>Early antiviral treatment contributes to alleviate the severity and improve the prognosis of patients with novel coronavirus disease (COVID\u201019)</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%0, Xu%Y%coreGivesNoEmail%0, Zhanwei%Du%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>CORE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd mmmm yyyy"/>
-    <numFmt numFmtId="165" formatCode="d mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,7 +130,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -136,44 +140,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -363,20 +368,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -393,81 +403,93 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43930</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43917</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>43930.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="B4" s="3">
+        <v>43930</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43930.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>43917.0</v>
-      </c>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S1871402120301399?via%3Dihub" xr:uid="{8BDCE7A0-856B-4211-9707-C022CF2C7ED9}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{312BE0C7-52F2-42C2-8854-64823B376B01}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Doi</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,  Michael%Phillips%NULL%1,  Sarah%Hochman%NULL%1,  Stephanie%Sterling%NULL%1,  Diane%Johnson%NULL%1,  Fritz%Francois%NULL%1,  Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -441,7 +447,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
   <si>
     <t>Doi</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,   Michael%Phillips%NULL%1,   Sarah%Hochman%NULL%1,   Stephanie%Sterling%NULL%1,   Diane%Johnson%NULL%1,   Fritz%Francois%NULL%1,   Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,    Michael%Phillips%NULL%1,    Sarah%Hochman%NULL%1,    Stephanie%Sterling%NULL%1,    Diane%Johnson%NULL%1,    Fritz%Francois%NULL%1,    Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,     Michael%Phillips%NULL%1,     Sarah%Hochman%NULL%1,     Stephanie%Sterling%NULL%1,     Diane%Johnson%NULL%1,     Fritz%Francois%NULL%1,     Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,      Michael%Phillips%NULL%1,      Sarah%Hochman%NULL%1,      Stephanie%Sterling%NULL%1,      Diane%Johnson%NULL%1,      Fritz%Francois%NULL%1,      Anna%Stachel%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
   <si>
     <t>Doi</t>
   </si>
@@ -107,6 +107,27 @@
   </si>
   <si>
     <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,      Michael%Phillips%NULL%1,      Sarah%Hochman%NULL%1,      Stephanie%Sterling%NULL%1,      Diane%Johnson%NULL%1,      Fritz%Francois%NULL%1,      Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,       Michael%Phillips%NULL%1,       Sarah%Hochman%NULL%1,       Stephanie%Sterling%NULL%1,       Diane%Johnson%NULL%1,       Fritz%Francois%NULL%0,       Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Early antiviral treatment contributes to alleviate the severity and improve the prognosis of patients with novel coronavirus disease (COVID\u201019)"</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1, W.%Li%xref no email%1, X.%Shi%xref no email%1, Z.%Chen%xref no email%1, B.%Jiang%xref no email%1, J.%Liu%xref no email%1, D.%Wang%xref no email%1, C.%Liu%xref no email%1, Y.%Meng%xref no email%1, L.%Cui%xref no email%1, J.%Yu%xref no email%1, H.%Cao%xref no email%1, L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,        Michael%Phillips%NULL%1,        Sarah%Hochman%NULL%1,        Stephanie%Sterling%NULL%1,        Diane%Johnson%NULL%1,        Fritz%Francois%NULL%0,        Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,  W.%Li%xref no email%1,  X.%Shi%xref no email%1,  Z.%Chen%xref no email%2,  B.%Jiang%xref no email%1,  J.%Liu%xref no email%0,  D.%Wang%xref no email%1,  C.%Liu%xref no email%1,  Y.%Meng%xref no email%1,  L.%Cui%xref no email%1,  J.%Yu%xref no email%1,  H.%Cao%xref no email%1,  L.%Li%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -447,7 +468,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -470,22 +491,22 @@
         <v>43917</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="40">
   <si>
     <t>Doi</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>[J.%Wu%xref no email%1,  W.%Li%xref no email%1,  X.%Shi%xref no email%1,  Z.%Chen%xref no email%2,  B.%Jiang%xref no email%1,  J.%Liu%xref no email%0,  D.%Wang%xref no email%1,  C.%Liu%xref no email%1,  Y.%Meng%xref no email%1,  L.%Cui%xref no email%1,  J.%Yu%xref no email%1,  H.%Cao%xref no email%1,  L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,         Michael%Phillips%NULL%1,         Sarah%Hochman%NULL%1,         Stephanie%Sterling%NULL%1,         Diane%Johnson%NULL%1,         Fritz%Francois%NULL%0,         Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,   W.%Li%xref no email%1,   X.%Shi%xref no email%1,   Z.%Chen%xref no email%1,   B.%Jiang%xref no email%1,   J.%Liu%xref no email%1,   D.%Wang%xref no email%1,   C.%Liu%xref no email%1,   Y.%Meng%xref no email%1,   L.%Cui%xref no email%1,   J.%Yu%xref no email%1,   H.%Cao%xref no email%1,   L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,          Michael%Phillips%NULL%1,          Sarah%Hochman%NULL%1,          Stephanie%Sterling%NULL%1,          Diane%Johnson%NULL%1,          Fritz%Francois%NULL%0,          Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,    W.%Li%xref no email%1,    X.%Shi%xref no email%1,    Z.%Chen%xref no email%1,    B.%Jiang%xref no email%1,    J.%Liu%xref no email%1,    D.%Wang%xref no email%1,    C.%Liu%xref no email%1,    Y.%Meng%xref no email%1,    L.%Cui%xref no email%1,    J.%Yu%xref no email%1,    H.%Cao%xref no email%1,    L.%Li%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -497,7 +509,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="44">
   <si>
     <t>Doi</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>[J.%Wu%xref no email%1,    W.%Li%xref no email%1,    X.%Shi%xref no email%1,    Z.%Chen%xref no email%1,    B.%Jiang%xref no email%1,    J.%Liu%xref no email%1,    D.%Wang%xref no email%1,    C.%Liu%xref no email%1,    Y.%Meng%xref no email%1,    L.%Cui%xref no email%1,    J.%Yu%xref no email%1,    H.%Cao%xref no email%1,    L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,           Michael%Phillips%NULL%1,           Sarah%Hochman%NULL%1,           Stephanie%Sterling%NULL%1,           Diane%Johnson%NULL%1,           Fritz%Francois%NULL%0,           Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,     W.%Li%xref no email%1,     X.%Shi%xref no email%1,     Z.%Chen%xref no email%1,     B.%Jiang%xref no email%1,     J.%Liu%xref no email%1,     D.%Wang%xref no email%1,     C.%Liu%xref no email%1,     Y.%Meng%xref no email%1,     L.%Cui%xref no email%1,     J.%Yu%xref no email%1,     H.%Cao%xref no email%1,     L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,            Michael%Phillips%NULL%1,            Sarah%Hochman%NULL%1,            Stephanie%Sterling%NULL%1,            Diane%Johnson%NULL%1,            Fritz%Francois%NULL%0,            Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,      W.%Li%xref no email%1,      X.%Shi%xref no email%1,      Z.%Chen%xref no email%1,      B.%Jiang%xref no email%1,      J.%Liu%xref no email%1,      D.%Wang%xref no email%1,      C.%Liu%xref no email%1,      Y.%Meng%xref no email%1,      L.%Cui%xref no email%1,      J.%Yu%xref no email%1,      H.%Cao%xref no email%1,      L.%Li%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -480,7 +492,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -509,7 +521,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="46">
   <si>
     <t>Doi</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>[J.%Wu%xref no email%1,      W.%Li%xref no email%1,      X.%Shi%xref no email%1,      Z.%Chen%xref no email%1,      B.%Jiang%xref no email%1,      J.%Liu%xref no email%1,      D.%Wang%xref no email%1,      C.%Liu%xref no email%1,      Y.%Meng%xref no email%1,      L.%Cui%xref no email%1,      J.%Yu%xref no email%1,      H.%Cao%xref no email%1,      L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,             Michael%Phillips%NULL%1,             Sarah%Hochman%NULL%1,             Stephanie%Sterling%NULL%1,             Diane%Johnson%NULL%1,             Fritz%Francois%NULL%0,             Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,       W.%Li%xref no email%1,       X.%Shi%xref no email%1,       Z.%Chen%xref no email%1,       B.%Jiang%xref no email%1,       J.%Liu%xref no email%1,       D.%Wang%xref no email%1,       C.%Liu%xref no email%1,       Y.%Meng%xref no email%1,       L.%Cui%xref no email%1,       J.%Yu%xref no email%1,       H.%Cao%xref no email%1,       L.%Li%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -521,7 +527,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="48">
   <si>
     <t>Doi</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>[J.%Wu%xref no email%1,       W.%Li%xref no email%1,       X.%Shi%xref no email%1,       Z.%Chen%xref no email%1,       B.%Jiang%xref no email%1,       J.%Liu%xref no email%1,       D.%Wang%xref no email%1,       C.%Liu%xref no email%1,       Y.%Meng%xref no email%1,       L.%Cui%xref no email%1,       J.%Yu%xref no email%1,       H.%Cao%xref no email%1,       L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,              Michael%Phillips%NULL%1,              Sarah%Hochman%NULL%1,              Stephanie%Sterling%NULL%1,              Diane%Johnson%NULL%1,              Fritz%Francois%NULL%0,              Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,        W.%Li%xref no email%1,        X.%Shi%xref no email%1,        Z.%Chen%xref no email%1,        B.%Jiang%xref no email%1,        J.%Liu%xref no email%1,        D.%Wang%xref no email%1,        C.%Liu%xref no email%1,        Y.%Meng%xref no email%1,        L.%Cui%xref no email%1,        J.%Yu%xref no email%1,        H.%Cao%xref no email%1,        L.%Li%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -527,7 +533,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="52">
   <si>
     <t>Doi</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>[J.%Wu%xref no email%1,        W.%Li%xref no email%1,        X.%Shi%xref no email%1,        Z.%Chen%xref no email%1,        B.%Jiang%xref no email%1,        J.%Liu%xref no email%1,        D.%Wang%xref no email%1,        C.%Liu%xref no email%1,        Y.%Meng%xref no email%1,        L.%Cui%xref no email%1,        J.%Yu%xref no email%1,        H.%Cao%xref no email%1,        L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,               Michael%Phillips%NULL%1,               Sarah%Hochman%NULL%1,               Stephanie%Sterling%NULL%1,               Diane%Johnson%NULL%1,               Fritz%Francois%NULL%0,               Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,         W.%Li%xref no email%1,         X.%Shi%xref no email%1,         Z.%Chen%xref no email%1,         B.%Jiang%xref no email%1,         J.%Liu%xref no email%1,         D.%Wang%xref no email%1,         C.%Liu%xref no email%1,         Y.%Meng%xref no email%1,         L.%Cui%xref no email%1,         J.%Yu%xref no email%1,         H.%Cao%xref no email%1,         L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                Michael%Phillips%NULL%1,                Sarah%Hochman%NULL%1,                Stephanie%Sterling%NULL%1,                Diane%Johnson%NULL%1,                Fritz%Francois%NULL%0,                Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,          W.%Li%xref no email%1,          X.%Shi%xref no email%1,          Z.%Chen%xref no email%1,          B.%Jiang%xref no email%1,          J.%Liu%xref no email%1,          D.%Wang%xref no email%1,          C.%Liu%xref no email%1,          Y.%Meng%xref no email%1,          L.%Cui%xref no email%1,          J.%Yu%xref no email%1,          H.%Cao%xref no email%1,          L.%Li%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -504,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -533,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="54">
   <si>
     <t>Doi</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>[J.%Wu%xref no email%1,          W.%Li%xref no email%1,          X.%Shi%xref no email%1,          Z.%Chen%xref no email%1,          B.%Jiang%xref no email%1,          J.%Liu%xref no email%1,          D.%Wang%xref no email%1,          C.%Liu%xref no email%1,          Y.%Meng%xref no email%1,          L.%Cui%xref no email%1,          J.%Yu%xref no email%1,          H.%Cao%xref no email%1,          L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                 Michael%Phillips%NULL%1,                 Sarah%Hochman%NULL%1,                 Stephanie%Sterling%NULL%1,                 Diane%Johnson%NULL%1,                 Fritz%Francois%NULL%0,                 Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,           W.%Li%xref no email%1,           X.%Shi%xref no email%1,           Z.%Chen%xref no email%1,           B.%Jiang%xref no email%1,           J.%Liu%xref no email%1,           D.%Wang%xref no email%1,           C.%Liu%xref no email%1,           Y.%Meng%xref no email%1,           L.%Cui%xref no email%1,           J.%Yu%xref no email%1,           H.%Cao%xref no email%1,           L.%Li%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -545,7 +551,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="58">
   <si>
     <t>Doi</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>[J.%Wu%xref no email%1,           W.%Li%xref no email%1,           X.%Shi%xref no email%1,           Z.%Chen%xref no email%1,           B.%Jiang%xref no email%1,           J.%Liu%xref no email%1,           D.%Wang%xref no email%1,           C.%Liu%xref no email%1,           Y.%Meng%xref no email%1,           L.%Cui%xref no email%1,           J.%Yu%xref no email%1,           H.%Cao%xref no email%1,           L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                  Michael%Phillips%NULL%1,                  Sarah%Hochman%NULL%1,                  Stephanie%Sterling%NULL%1,                  Diane%Johnson%NULL%1,                  Fritz%Francois%NULL%0,                  Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,            W.%Li%xref no email%1,            X.%Shi%xref no email%1,            Z.%Chen%xref no email%1,            B.%Jiang%xref no email%1,            J.%Liu%xref no email%1,            D.%Wang%xref no email%1,            C.%Liu%xref no email%1,            Y.%Meng%xref no email%1,            L.%Cui%xref no email%1,            J.%Yu%xref no email%1,            H.%Cao%xref no email%1,            L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -522,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -534,7 +546,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -551,7 +563,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -563,7 +575,7 @@
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="60">
   <si>
     <t>Doi</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                   Michael%Phillips%NULL%1,                   Sarah%Hochman%NULL%1,                   Stephanie%Sterling%NULL%1,                   Diane%Johnson%NULL%1,                   Fritz%Francois%NULL%0,                   Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%1,             W.%Li%xref no email%1,             X.%Shi%xref no email%1,             Z.%Chen%xref no email%1,             B.%Jiang%xref no email%1,             J.%Liu%xref no email%1,             D.%Wang%xref no email%1,             C.%Liu%xref no email%1,             Y.%Meng%xref no email%1,             L.%Cui%xref no email%1,             J.%Yu%xref no email%1,             H.%Cao%xref no email%1,             L.%Li%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -563,7 +569,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="69">
   <si>
     <t>Doi</t>
   </si>
@@ -200,6 +200,33 @@
   </si>
   <si>
     <t>[J.%Wu%xref no email%1,             W.%Li%xref no email%1,             X.%Shi%xref no email%1,             Z.%Chen%xref no email%1,             B.%Jiang%xref no email%1,             J.%Liu%xref no email%1,             D.%Wang%xref no email%1,             C.%Liu%xref no email%1,             Y.%Meng%xref no email%1,             L.%Cui%xref no email%1,             J.%Yu%xref no email%1,             H.%Cao%xref no email%1,             L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                    Michael%Phillips%NULL%1,                    Sarah%Hochman%NULL%1,                    Stephanie%Sterling%NULL%1,                    Diane%Johnson%NULL%1,                    Fritz%Francois%NULL%0,                    Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Wu%xref no email%0, W.%Li%xref no email%1, X.%Shi%xref no email%1, Z.%Chen%xref no email%1, B.%Jiang%xref no email%1, J.%Liu%xref no email%1, D.%Wang%xref no email%1, C.%Liu%xref no email%1, Y.%Meng%xref no email%1, L.%Cui%xref no email%1, J.%Yu%xref no email%1, H.%Cao%xref no email%1, L.%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                     Michael%Phillips%NULL%1,                     Sarah%Hochman%NULL%1,                     Stephanie%Sterling%NULL%1,                     Diane%Johnson%NULL%1,                     Fritz%Francois%NULL%0,                     Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                      Michael%Phillips%NULL%1,                      Sarah%Hochman%NULL%1,                      Stephanie%Sterling%NULL%1,                      Diane%Johnson%NULL%1,                      Fritz%Francois%NULL%0,                      Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                       Michael%Phillips%NULL%1,                       Sarah%Hochman%NULL%1,                       Stephanie%Sterling%NULL%1,                       Diane%Johnson%NULL%1,                       Fritz%Francois%NULL%0,                       Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                        Michael%Phillips%NULL%1,                        Sarah%Hochman%NULL%1,                        Stephanie%Sterling%NULL%1,                        Diane%Johnson%NULL%1,                        Fritz%Francois%NULL%0,                        Anna%Stachel%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -525,6 +552,9 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -540,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -553,6 +583,9 @@
       </c>
       <c r="I2" t="s">
         <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -569,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -578,10 +611,13 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/Covid_19_Dataset_and_References/References/57.xlsx
+++ b/Covid_19_Dataset_and_References/References/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="71">
   <si>
     <t>Doi</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                        Michael%Phillips%NULL%1,                        Sarah%Hochman%NULL%1,                        Stephanie%Sterling%NULL%1,                        Diane%Johnson%NULL%1,                        Fritz%Francois%NULL%0,                        Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                         Michael%Phillips%NULL%1,                         Sarah%Hochman%NULL%1,                         Stephanie%Sterling%NULL%1,                         Diane%Johnson%NULL%1,                         Fritz%Francois%NULL%0,                         Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                          Michael%Phillips%NULL%1,                          Sarah%Hochman%NULL%1,                          Stephanie%Sterling%NULL%1,                          Diane%Johnson%NULL%1,                          Fritz%Francois%NULL%0,                          Anna%Stachel%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -602,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
